--- a/KetQuaTest_ConfirmCheckoutServlet.xlsx
+++ b/KetQuaTest_ConfirmCheckoutServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -35,26 +35,55 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>CHECKOUT_04</t>
+  </si>
+  <si>
+    <t>Giỏ hàng rỗng</t>
+  </si>
+  <si>
+    <t>Cart=[]</t>
+  </si>
+  <si>
+    <t>1. Service return EMPTY_CART</t>
+  </si>
+  <si>
+    <t>Redirect view-cart.jsp</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>CHECKOUT_01</t>
   </si>
   <si>
     <t>Đặt hàng thành công</t>
   </si>
   <si>
-    <t>1. User, Cart OK
-2. Service return SUCCESS</t>
-  </si>
-  <si>
-    <t>Addr: Hanoi, Phone: 0909</t>
+    <t>Addr: Hanoi</t>
+  </si>
+  <si>
+    <t>1. Service return SUCCESS</t>
   </si>
   <si>
     <t>Xóa Cart &amp; Redirect Home</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>CHECKOUT_05</t>
+  </si>
+  <si>
+    <t>Lỗi lưu Order (DB)</t>
+  </si>
+  <si>
+    <t>DB Error</t>
+  </si>
+  <si>
+    <t>1. Service return ORDER_FAILED</t>
+  </si>
+  <si>
+    <t>Forward Checkout.jsp + Error</t>
   </si>
   <si>
     <t>CHECKOUT_03</t>
@@ -63,14 +92,10 @@
     <t>Thiếu thông tin</t>
   </si>
   <si>
-    <t>1. Address/Phone null
-2. Service return MISSING_INFO</t>
-  </si>
-  <si>
     <t>Addr=null</t>
   </si>
   <si>
-    <t>Forward lại Checkout.jsp + Error</t>
+    <t>1. Service return MISSING_INFO</t>
   </si>
   <si>
     <t>CHECKOUT_02</t>
@@ -79,14 +104,34 @@
     <t>Chưa đăng nhập</t>
   </si>
   <si>
-    <t>1. User session = null
-2. Service return NOT_LOGGED_IN</t>
-  </si>
-  <si>
     <t>User=null</t>
   </si>
   <si>
+    <t>1. Service return NOT_LOGGED_IN</t>
+  </si>
+  <si>
     <t>Redirect Login</t>
+  </si>
+  <si>
+    <t>CHECKOUT_07</t>
+  </si>
+  <si>
+    <t>Lỗi hệ thống</t>
+  </si>
+  <si>
+    <t>Crash</t>
+  </si>
+  <si>
+    <t>1. Service return EXCEPTION</t>
+  </si>
+  <si>
+    <t>CHECKOUT_06</t>
+  </si>
+  <si>
+    <t>Lỗi lưu chi tiết</t>
+  </si>
+  <si>
+    <t>1. Service return DETAIL_FAILED</t>
   </si>
 </sst>
 </file>
@@ -164,7 +209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -172,9 +217,9 @@
   <cols>
     <col min="1" max="1" width="14.23828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.63671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="24.015625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="29.71484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="31.97265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="27.15234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -271,6 +316,98 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
